--- a/form_filled.xlsx
+++ b/form_filled.xlsx
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -311,6 +311,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -344,17 +356,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -830,7 +833,7 @@
   <dimension ref="C2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.6"/>
@@ -893,9 +896,9 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>Q-2024-00013</t>
+      <c r="L5" s="47" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
     </row>
@@ -923,36 +926,36 @@
       <c r="L7" s="12" t="n"/>
     </row>
     <row r="8">
-      <c r="C8" s="47" t="inlineStr">
+      <c r="C8" s="48" t="inlineStr">
         <is>
           <t>Customer: - ชื่อลูกค้า -</t>
         </is>
       </c>
-      <c r="D8" s="48" t="n"/>
-      <c r="E8" s="48" t="n"/>
-      <c r="F8" s="48" t="n"/>
-      <c r="G8" s="48" t="n"/>
-      <c r="H8" s="48" t="n"/>
-      <c r="I8" s="48" t="n"/>
-      <c r="J8" s="48" t="n"/>
-      <c r="K8" s="48" t="n"/>
-      <c r="L8" s="48" t="n"/>
+      <c r="D8" s="49" t="n"/>
+      <c r="E8" s="49" t="n"/>
+      <c r="F8" s="49" t="n"/>
+      <c r="G8" s="49" t="n"/>
+      <c r="H8" s="49" t="n"/>
+      <c r="I8" s="49" t="n"/>
+      <c r="J8" s="49" t="n"/>
+      <c r="K8" s="49" t="n"/>
+      <c r="L8" s="49" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="C9" s="49" t="inlineStr">
+      <c r="C9" s="50" t="inlineStr">
         <is>
           <t>Bill To: - ที่อยู่ลูกค้า -</t>
         </is>
       </c>
-      <c r="D9" s="50" t="n"/>
-      <c r="E9" s="50" t="n"/>
-      <c r="F9" s="50" t="n"/>
-      <c r="G9" s="50" t="n"/>
-      <c r="H9" s="50" t="n"/>
-      <c r="I9" s="50" t="n"/>
-      <c r="J9" s="50" t="n"/>
-      <c r="K9" s="50" t="n"/>
-      <c r="L9" s="50" t="n"/>
+      <c r="D9" s="51" t="n"/>
+      <c r="E9" s="51" t="n"/>
+      <c r="F9" s="51" t="n"/>
+      <c r="G9" s="51" t="n"/>
+      <c r="H9" s="51" t="n"/>
+      <c r="I9" s="51" t="n"/>
+      <c r="J9" s="51" t="n"/>
+      <c r="K9" s="51" t="n"/>
+      <c r="L9" s="51" t="n"/>
     </row>
     <row r="10" ht="24.6" customHeight="1">
       <c r="C10" s="3" t="inlineStr">
@@ -962,321 +965,321 @@
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="40" t="n"/>
+      <c r="C11" s="44" t="n"/>
       <c r="D11" s="14" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="E11" s="38" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F11" s="51" t="n"/>
-      <c r="G11" s="38" t="inlineStr">
+      <c r="F11" s="52" t="n"/>
+      <c r="G11" s="42" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="H11" s="51" t="n"/>
-      <c r="I11" s="40" t="inlineStr">
+      <c r="H11" s="52" t="n"/>
+      <c r="I11" s="44" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="J11" s="52" t="n"/>
+      <c r="J11" s="53" t="n"/>
       <c r="K11" s="14" t="inlineStr">
         <is>
           <t>Total Price</t>
         </is>
       </c>
-      <c r="L11" s="53" t="n"/>
+      <c r="L11" s="54" t="n"/>
     </row>
     <row r="12">
-      <c r="C12" s="54" t="n">
+      <c r="C12" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="54" t="inlineStr">
+      <c r="D12" s="55" t="inlineStr">
         <is>
           <t>PV panels</t>
         </is>
       </c>
-      <c r="E12" s="55" t="n"/>
-      <c r="F12" s="56" t="n"/>
-      <c r="G12" s="57" t="n">
-        <v>2206</v>
-      </c>
-      <c r="H12" s="56" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I12" s="58" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" s="59" t="inlineStr">
+      <c r="E12" s="56" t="n"/>
+      <c r="F12" s="57" t="n"/>
+      <c r="G12" s="58" t="n">
+        <v>2336</v>
+      </c>
+      <c r="H12" s="57" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I12" s="59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" s="60" t="inlineStr">
         <is>
           <t>Pannels</t>
         </is>
       </c>
-      <c r="K12" s="60" t="n">
-        <v>39708</v>
-      </c>
-      <c r="L12" s="61" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="M12" s="62" t="n"/>
+      <c r="K12" s="61" t="n">
+        <v>39712</v>
+      </c>
+      <c r="L12" s="62" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="M12" s="63" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="54" t="n">
+      <c r="C13" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="inlineStr">
+      <c r="D13" s="55" t="inlineStr">
         <is>
           <t>Inverter and Accessories</t>
         </is>
       </c>
-      <c r="E13" s="63" t="n"/>
-      <c r="F13" s="59" t="n"/>
-      <c r="G13" s="60" t="n">
+      <c r="E13" s="64" t="n"/>
+      <c r="F13" s="60" t="n"/>
+      <c r="G13" s="61" t="n">
         <v>56000</v>
       </c>
-      <c r="H13" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I13" s="58" t="n">
+      <c r="H13" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I13" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="59" t="inlineStr">
+      <c r="J13" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K13" s="60" t="n">
+      <c r="K13" s="61" t="n">
         <v>56000</v>
       </c>
-      <c r="L13" s="61" t="inlineStr">
+      <c r="L13" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="54" t="inlineStr">
+      <c r="D14" s="55" t="inlineStr">
         <is>
           <t>Optimizer/rapid shutdown</t>
         </is>
       </c>
-      <c r="E14" s="64" t="n"/>
-      <c r="F14" s="59" t="n"/>
-      <c r="G14" s="60" t="n">
+      <c r="E14" s="65" t="n"/>
+      <c r="F14" s="60" t="n"/>
+      <c r="G14" s="61" t="n">
         <v>30600</v>
       </c>
-      <c r="H14" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I14" s="58" t="n">
+      <c r="H14" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I14" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="59" t="inlineStr">
+      <c r="J14" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K14" s="60" t="n">
+      <c r="K14" s="61" t="n">
         <v>30600</v>
       </c>
-      <c r="L14" s="61" t="inlineStr">
+      <c r="L14" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="54" t="n">
+      <c r="C15" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="54" t="inlineStr">
+      <c r="D15" s="55" t="inlineStr">
         <is>
           <t>PV Support Structure</t>
         </is>
       </c>
-      <c r="E15" s="63" t="n"/>
-      <c r="F15" s="59" t="n"/>
-      <c r="G15" s="60" t="n">
+      <c r="E15" s="64" t="n"/>
+      <c r="F15" s="60" t="n"/>
+      <c r="G15" s="61" t="n">
         <v>31000</v>
       </c>
-      <c r="H15" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I15" s="54" t="n">
+      <c r="H15" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I15" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="59" t="inlineStr">
+      <c r="J15" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K15" s="60" t="n">
+      <c r="K15" s="61" t="n">
         <v>31000</v>
       </c>
-      <c r="L15" s="61" t="inlineStr">
+      <c r="L15" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="54" t="n">
+      <c r="C16" s="55" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="54" t="inlineStr">
+      <c r="D16" s="55" t="inlineStr">
         <is>
           <t>LABOUR INSTALATION</t>
         </is>
       </c>
-      <c r="E16" s="63" t="n"/>
-      <c r="F16" s="59" t="n"/>
-      <c r="G16" s="60" t="n">
+      <c r="E16" s="64" t="n"/>
+      <c r="F16" s="60" t="n"/>
+      <c r="G16" s="61" t="n">
         <v>25000</v>
       </c>
-      <c r="H16" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I16" s="54" t="n">
+      <c r="H16" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I16" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="59" t="inlineStr">
+      <c r="J16" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K16" s="60" t="n">
+      <c r="K16" s="61" t="n">
         <v>25000</v>
       </c>
-      <c r="L16" s="61" t="inlineStr">
+      <c r="L16" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="54" t="n">
+      <c r="C17" s="55" t="n">
         <v>6</v>
       </c>
-      <c r="D17" s="54" t="inlineStr">
+      <c r="D17" s="55" t="inlineStr">
         <is>
           <t>PERMIT AND LICENSE</t>
         </is>
       </c>
-      <c r="E17" s="63" t="n"/>
-      <c r="F17" s="59" t="n"/>
-      <c r="G17" s="60" t="n">
+      <c r="E17" s="64" t="n"/>
+      <c r="F17" s="60" t="n"/>
+      <c r="G17" s="61" t="n">
         <v>6000</v>
       </c>
-      <c r="H17" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I17" s="54" t="n">
+      <c r="H17" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I17" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="59" t="inlineStr">
+      <c r="J17" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K17" s="60" t="n">
+      <c r="K17" s="61" t="n">
         <v>6000</v>
       </c>
-      <c r="L17" s="61" t="inlineStr">
+      <c r="L17" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="54" t="n">
+      <c r="C18" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="54" t="inlineStr">
+      <c r="D18" s="55" t="inlineStr">
         <is>
           <t>Engineering and Construction</t>
         </is>
       </c>
-      <c r="E18" s="63" t="n"/>
-      <c r="F18" s="59" t="n"/>
-      <c r="G18" s="60" t="n">
+      <c r="E18" s="64" t="n"/>
+      <c r="F18" s="60" t="n"/>
+      <c r="G18" s="61" t="n">
         <v>30000</v>
       </c>
-      <c r="H18" s="59" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I18" s="54" t="n">
+      <c r="H18" s="60" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I18" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="59" t="inlineStr">
+      <c r="J18" s="60" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K18" s="60" t="n">
+      <c r="K18" s="61" t="n">
         <v>30000</v>
       </c>
-      <c r="L18" s="61" t="inlineStr">
+      <c r="L18" s="62" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="65" t="n">
+      <c r="C19" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="D19" s="65" t="inlineStr">
+      <c r="D19" s="66" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E19" s="66" t="n"/>
-      <c r="F19" s="67" t="n"/>
-      <c r="G19" s="68" t="n">
+      <c r="E19" s="67" t="n"/>
+      <c r="F19" s="68" t="n"/>
+      <c r="G19" s="69" t="n">
         <v>70000</v>
       </c>
-      <c r="H19" s="67" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="I19" s="65" t="n">
+      <c r="H19" s="68" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="I19" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="67" t="inlineStr">
+      <c r="J19" s="68" t="inlineStr">
         <is>
           <t>LOT</t>
         </is>
       </c>
-      <c r="K19" s="68" t="n">
+      <c r="K19" s="69" t="n">
         <v>70000</v>
       </c>
-      <c r="L19" s="69" t="inlineStr">
+      <c r="L19" s="70" t="inlineStr">
         <is>
           <t>THB</t>
         </is>
@@ -1285,7 +1288,7 @@
     <row r="20">
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
-      <c r="E20" s="46" t="n"/>
+      <c r="E20" s="35" t="n"/>
       <c r="F20" s="9" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="9" t="n"/>
@@ -1295,19 +1298,19 @@
       <c r="L20" s="17" t="n"/>
     </row>
     <row r="21">
-      <c r="C21" s="32" t="inlineStr">
+      <c r="C21" s="36" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="52" t="n"/>
-      <c r="H21" s="52" t="n"/>
-      <c r="I21" s="52" t="n"/>
-      <c r="J21" s="52" t="n"/>
-      <c r="K21" s="70">
+      <c r="D21" s="53" t="n"/>
+      <c r="E21" s="53" t="n"/>
+      <c r="F21" s="53" t="n"/>
+      <c r="G21" s="53" t="n"/>
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="53" t="n"/>
+      <c r="J21" s="53" t="n"/>
+      <c r="K21" s="71">
         <f>SUM(K12:K19)</f>
         <v/>
       </c>
@@ -1316,7 +1319,7 @@
           <t>THB</t>
         </is>
       </c>
-      <c r="O21" s="71" t="n"/>
+      <c r="O21" s="72" t="n"/>
     </row>
     <row r="22">
       <c r="C22" s="6" t="n"/>
@@ -1325,11 +1328,6 @@
           <t>TAX</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
       <c r="G22" s="5" t="n"/>
       <c r="H22" s="19" t="n">
         <v>0.07000000000000001</v>
@@ -1337,23 +1335,23 @@
       <c r="I22" s="15" t="n"/>
       <c r="K22" s="5" t="n"/>
       <c r="L22" s="18" t="n"/>
-      <c r="N22" s="71" t="n"/>
-      <c r="O22" s="71" t="n"/>
+      <c r="N22" s="72" t="n"/>
+      <c r="O22" s="72" t="n"/>
     </row>
     <row r="23">
-      <c r="C23" s="32" t="inlineStr">
+      <c r="C23" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL </t>
         </is>
       </c>
-      <c r="D23" s="52" t="n"/>
-      <c r="E23" s="52" t="n"/>
-      <c r="F23" s="52" t="n"/>
-      <c r="G23" s="52" t="n"/>
-      <c r="H23" s="52" t="n"/>
-      <c r="I23" s="52" t="n"/>
-      <c r="J23" s="52" t="n"/>
-      <c r="K23" s="72">
+      <c r="D23" s="53" t="n"/>
+      <c r="E23" s="53" t="n"/>
+      <c r="F23" s="53" t="n"/>
+      <c r="G23" s="53" t="n"/>
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="53" t="n"/>
+      <c r="J23" s="53" t="n"/>
+      <c r="K23" s="73">
         <f>K21*(1+$H$22)</f>
         <v/>
       </c>
@@ -1390,7 +1388,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="C28" s="59" t="inlineStr">
+      <c r="C28" s="60" t="inlineStr">
         <is>
           <t>Until - วันหมดอายุใบเสนอราคา -</t>
         </is>
@@ -1404,49 +1402,49 @@
       </c>
     </row>
     <row r="30" ht="90.75" customHeight="1">
-      <c r="C30" s="34" t="inlineStr">
+      <c r="C30" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    Payment Term 30% after finish the installation process within 30 days after receiving the invoice, 40% after finish the testing process within 30 days after receiving the invoice, and final payment 30% after submit the licensing process within 30 days after receiving the invoice. 
 If customer fails to make payment specified herein of fails to complete the payment or pay overdue date thereof, EGAT shall reserve the right to claim for such payment from customer provided that the payment shall accrue interest at the applicable of the Minimum Overdraft Rate plus 2 (two) (MOR+2) at Krung Thai Bank Public Company Limited from and including the date of the payment was due up to the date such amount is paid.
 </t>
         </is>
       </c>
-      <c r="D30" s="50" t="n"/>
-      <c r="E30" s="50" t="n"/>
-      <c r="F30" s="50" t="n"/>
-      <c r="G30" s="50" t="n"/>
-      <c r="H30" s="50" t="n"/>
-      <c r="I30" s="50" t="n"/>
-      <c r="J30" s="50" t="n"/>
-      <c r="K30" s="50" t="n"/>
-      <c r="L30" s="50" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
     </row>
     <row r="31" ht="59.25" customHeight="1">
-      <c r="C31" s="35" t="inlineStr">
+      <c r="C31" s="39" t="inlineStr">
         <is>
           <t>In reply to your inquiry for EGAT Smart Energy Solutions project, we have pleasure in offering you the proposal with the terms and conditions as mentioned above.  
 Your faithfully,</t>
         </is>
       </c>
-      <c r="D31" s="48" t="n"/>
-      <c r="E31" s="48" t="n"/>
-      <c r="F31" s="48" t="n"/>
-      <c r="G31" s="48" t="n"/>
-      <c r="H31" s="48" t="n"/>
-      <c r="I31" s="48" t="n"/>
-      <c r="J31" s="48" t="n"/>
-      <c r="K31" s="48" t="n"/>
-      <c r="L31" s="48" t="n"/>
+      <c r="D31" s="49" t="n"/>
+      <c r="E31" s="49" t="n"/>
+      <c r="F31" s="49" t="n"/>
+      <c r="G31" s="49" t="n"/>
+      <c r="H31" s="49" t="n"/>
+      <c r="I31" s="49" t="n"/>
+      <c r="J31" s="49" t="n"/>
+      <c r="K31" s="49" t="n"/>
+      <c r="L31" s="49" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="59" t="inlineStr">
+      <c r="C33" s="60" t="inlineStr">
         <is>
           <t>Weerayut Srithiam</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="C34" s="59" t="inlineStr">
+      <c r="C34" s="60" t="inlineStr">
         <is>
           <t>หัวหน้ากองธุรกิจโซลูชั่นพลังงานไฟฟ้า ฝ่ายจัดการธุรกิจนวัตกรรมพลังงาน</t>
         </is>

--- a/form_filled.xlsx
+++ b/form_filled.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="L5" s="47" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>- Quotation No. -</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
     <row r="34">
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>หัวหน้ากองธุรกิจโซลูชั่นพลังงานไฟฟ้า ฝ่ายจัดการธุรกิจนวัตกรรมพลังงาน</t>
+          <t>Assistant Governor - Business Management, Acting on behalf of Governor</t>
         </is>
       </c>
     </row>

--- a/form_filled.xlsx
+++ b/form_filled.xlsx
@@ -1446,7 +1446,7 @@
     <row r="34">
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>Assistant Governor - Business Management, Acting on behalf of Governor</t>
+          <t>หัวหน้ากองธุรกิจโซลูชั่นพลังงานไฟฟ้า ฝ่ายจัดการธุรกิจนวัตกรรมพลังงาน</t>
         </is>
       </c>
     </row>
